--- a/elite-data/manifest-templates/EL_template_StudyFolderTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_StudyFolderTemplate.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="276">
   <si>
     <t>studyKey</t>
   </si>
@@ -254,7 +254,7 @@
     <t>ILO</t>
   </si>
   <si>
-    <t>Human</t>
+    <t>Cross-Species Avian</t>
   </si>
   <si>
     <t>blood</t>
@@ -278,7 +278,7 @@
     <t>LC</t>
   </si>
   <si>
-    <t>Non Human</t>
+    <t>Cross-Species Mammalian</t>
   </si>
   <si>
     <t>Cerebrospinal Fluid (CSF)</t>
@@ -302,6 +302,9 @@
     <t>LG</t>
   </si>
   <si>
+    <t>Human</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -321,6 +324,9 @@
   </si>
   <si>
     <t>LLFS</t>
+  </si>
+  <si>
+    <t>Mouse</t>
   </si>
   <si>
     <t>Not collected</t>
@@ -31387,9 +31393,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
       <formula1>Sheet2!$K$2:$K$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
-      <formula1>Sheet2!$F$2:$F$4</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$6</formula1>
     </dataValidation>
@@ -31404,6 +31407,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="AA2:AA1000">
       <formula1>Sheet2!$AA$2:$AA$123</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
+      <formula1>Sheet2!$F$2:$F$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="R2:R1000">
       <formula1>Sheet2!$R$2:$R$4</formula1>
@@ -31576,45 +31582,48 @@
         <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -31622,16 +31631,16 @@
         <v>33</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>31</v>
@@ -31639,91 +31648,91 @@
     </row>
     <row r="7">
       <c r="G7" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="G8" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="G9" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
       <c r="G10" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="G11" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="G12" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="G13" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -31731,801 +31740,801 @@
         <v>27</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="G15" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB15" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="G16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="AA17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="AA18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB18" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="AA19" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="AA20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB20" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="AA21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="AA22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="AA23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="AA24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="AA25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="AA26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="AA27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="AA28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="AA29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="AA30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="AA31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="AA32" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="AA33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="AA34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="AA35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="AA36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="AA37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="AA38" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="AA39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB39" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="AA40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="AA41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="AA42" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="AA43" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="AA44" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="AA45" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="AA46" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="AA47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="AA48" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="AA49" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="AA50" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="AA51" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="AA52" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="AA53" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="AA54" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="AA55" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="AA56" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB56" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="AA57" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="AA58" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB58" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="AA59" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="AA60" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="AA61" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="AA62" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="AA63" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB63" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="AA64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB64" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="AA65" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="AA66" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="AA67" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="AA68" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB68" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="AA69" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB69" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="AA70" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="AA71" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AB71" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="AA72" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="AA73" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="AA74" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="AA75" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB75" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="AA76" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB76" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="AA77" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB77" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="AA78" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB78" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="AA79" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="AA80" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="AA81" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB81" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="AA82" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB82" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="AA83" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB83" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="AA84" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB84" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="AA85" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB85" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="AA86" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB86" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="AA87" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB87" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="AA88" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB88" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="AA89" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB89" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="AA90" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB90" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="AA91" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="AA92" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB92" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="AA93" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB93" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="AA94" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB94" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="AA95" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="AA96" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="AA97" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="AA98" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AA99" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="AA100" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="AA101" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="AA102" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="AA103" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="AA104" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="AA105" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="AA106" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="AA107" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="AA108" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="AA109" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="AA110" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="AA111" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="AA112" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16">
-      <c r="G16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA16" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB16" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="AA17" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB17" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="AA18" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="AA19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB19" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="AA20" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB20" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="AA21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="AA22" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AB22" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="AA23" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="AA24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB24" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="AA25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB25" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="AA26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB26" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="AA27" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB27" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="AA28" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="AA29" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="AA30" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB30" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="AA31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="AA32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB32" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="AA33" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="AA34" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB34" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="AA35" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="AA36" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB36" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="AA37" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="AA38" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="AA39" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="AA40" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="AA41" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB41" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="AA42" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="AA43" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB43" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="AA44" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB44" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="AA45" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="AA46" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="AA47" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB47" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="AA48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB48" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="AA49" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB49" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="AA50" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB50" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="AA51" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB51" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="AA52" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB52" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="AA53" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB53" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="AA54" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="AA55" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="AA56" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB56" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="AA57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB57" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="AA58" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB58" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="AA59" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB59" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="AA60" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB60" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="AA61" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB61" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="AA62" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB62" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="AA63" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="AA64" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB64" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="AA65" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB65" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="AA66" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB66" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="AA67" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB67" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="AA68" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB68" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="AA69" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB69" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="AA70" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB70" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="AA71" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB71" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="AA72" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AB72" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="AA73" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB73" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="AA74" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB74" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="AA75" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB75" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="AA76" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB76" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="AA77" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB77" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="AA78" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB78" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="AA79" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB79" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="AA80" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB80" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="AA81" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB81" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="AA82" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB82" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="AA83" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB83" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="AA84" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB84" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="AA85" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB85" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="AA86" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="AB86" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="AA87" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB87" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="AA88" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB88" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="AA89" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB89" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="AA90" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB90" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="AA91" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB91" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="AA92" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB92" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="AA93" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB93" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="AA94" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB94" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="AA95" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="AA96" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="AA97" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="AA98" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" s="6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" s="6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="AA112" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
     <row r="113">
       <c r="AA113" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_StudyFolderTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_StudyFolderTemplate.xlsx
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="290">
   <si>
     <t>studyKey</t>
   </si>
@@ -254,6 +254,9 @@
     <t>ILO</t>
   </si>
   <si>
+    <t>clinical</t>
+  </si>
+  <si>
     <t>Cross-Species Avian</t>
   </si>
   <si>
@@ -276,6 +279,9 @@
   </si>
   <si>
     <t>LC</t>
+  </si>
+  <si>
+    <t>drugScreen</t>
   </si>
   <si>
     <t>Cross-Species Mammalian</t>
@@ -302,6 +308,9 @@
     <t>LG</t>
   </si>
   <si>
+    <t>electrophysiology</t>
+  </si>
+  <si>
     <t>Human</t>
   </si>
   <si>
@@ -326,6 +335,9 @@
     <t>LLFS</t>
   </si>
   <si>
+    <t>epigenetics</t>
+  </si>
+  <si>
     <t>Mouse</t>
   </si>
   <si>
@@ -344,6 +356,9 @@
     <t>anterior cingulate cortex</t>
   </si>
   <si>
+    <t>geneExpression</t>
+  </si>
+  <si>
     <t>Not specified</t>
   </si>
   <si>
@@ -354,6 +369,9 @@
   </si>
   <si>
     <t>ATACSeq</t>
+  </si>
+  <si>
+    <t>genomeAssembly</t>
   </si>
   <si>
     <t>organoid</t>
@@ -368,6 +386,9 @@
     <t>bone marrow</t>
   </si>
   <si>
+    <t>genomicVariants</t>
+  </si>
+  <si>
     <t>plasma</t>
   </si>
   <si>
@@ -378,6 +399,9 @@
   </si>
   <si>
     <t>Buccal Mucosa</t>
+  </si>
+  <si>
+    <t>imaging</t>
   </si>
   <si>
     <t>saliva</t>
@@ -392,6 +416,9 @@
     <t>Buffy Coat</t>
   </si>
   <si>
+    <t>lipidomics</t>
+  </si>
+  <si>
     <t>serum</t>
   </si>
   <si>
@@ -404,6 +431,9 @@
     <t>caudate nucleus</t>
   </si>
   <si>
+    <t>metabolomics</t>
+  </si>
+  <si>
     <t>sputum</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
   </si>
   <si>
     <t>cecum derived fecal material</t>
+  </si>
+  <si>
+    <t>metagenomics</t>
   </si>
   <si>
     <t>stool</t>
@@ -446,6 +479,9 @@
     <t>cortical plate</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>urine</t>
   </si>
   <si>
@@ -455,10 +491,16 @@
     <t>dorsal anterior cingulate cortex</t>
   </si>
   <si>
+    <t>phenotype</t>
+  </si>
+  <si>
     <t>ChIPSeq</t>
   </si>
   <si>
     <t>dorsal pallium</t>
+  </si>
+  <si>
+    <t>proteomics</t>
   </si>
   <si>
     <t>CITESeq</t>
@@ -471,6 +513,9 @@
   </si>
   <si>
     <t>dorsolateral prefrontal cortex</t>
+  </si>
+  <si>
+    <t>wearableData</t>
   </si>
   <si>
     <t>CUT&amp;Tag</t>
@@ -807,9 +852,6 @@
   </si>
   <si>
     <t>putamen</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>right cerebral hemisphere</t>
@@ -31390,6 +31432,9 @@
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
+      <formula1>Sheet2!$E$2:$E$20</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="K2:K1000">
       <formula1>Sheet2!$K$2:$K$3</formula1>
     </dataValidation>
@@ -31523,1018 +31568,1075 @@
       <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB3" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
+      <c r="E7" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="G7" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
+      <c r="E8" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="G8" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
+      <c r="E9" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G9" s="6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
+      <c r="E10" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
+      <c r="E11" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="G11" s="6" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
+      <c r="E12" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="G12" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AA12" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
+      <c r="E13" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AB13" s="6" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
+      <c r="E14" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="AA14" s="6" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AB14" s="6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="G15" s="6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
+      <c r="E16" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G16" s="6" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AA16" s="6" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
+      <c r="E17" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="AA17" s="6" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18">
+      <c r="E18" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="AA18" s="6" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19">
+      <c r="E19" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="AA19" s="6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
+      <c r="E20" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="AA20" s="6" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
       <c r="AA21" s="6" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AB21" s="6" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
       <c r="AA22" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="AA23" s="6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="AB23" s="6" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24">
       <c r="AA24" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="AA25" s="6" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="AA26" s="6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
       <c r="AA27" s="6" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
       <c r="AA28" s="6" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="AA29" s="6" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30">
       <c r="AA30" s="6" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31">
       <c r="AA31" s="6" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32">
       <c r="AA32" s="6" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33">
       <c r="AA33" s="6" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
       <c r="AA34" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35">
       <c r="AA35" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36">
       <c r="AA36" s="6" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
       <c r="AA37" s="6" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
       <c r="AA38" s="6" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39">
       <c r="AA39" s="6" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40">
       <c r="AA40" s="6" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41">
       <c r="AA41" s="6" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
       <c r="AA42" s="6" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AB42" s="6" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43">
       <c r="AA43" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44">
       <c r="AA44" s="6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45">
       <c r="AA45" s="6" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="AA46" s="6" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47">
       <c r="AA47" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
       <c r="AA48" s="6" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49">
       <c r="AA49" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50">
       <c r="AA50" s="6" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AB50" s="6" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51">
       <c r="AA51" s="6" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52">
       <c r="AA52" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53">
       <c r="AA53" s="6" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54">
       <c r="AA54" s="6" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="AB54" s="6" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55">
       <c r="AA55" s="6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56">
       <c r="AA56" s="6" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57">
       <c r="AA57" s="6" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="AB57" s="6" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58">
       <c r="AA58" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="AB58" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59">
       <c r="AA59" s="6" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="AB59" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60">
       <c r="AA60" s="6" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61">
       <c r="AA61" s="6" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="AB61" s="6" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62">
       <c r="AA62" s="6" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="AB62" s="6" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63">
       <c r="AA63" s="6" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="AB63" s="6" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64">
       <c r="AA64" s="6" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="AB64" s="6" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65">
       <c r="AA65" s="6" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="AA66" s="6" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67">
       <c r="AA67" s="6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="AB67" s="6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
       <c r="AA68" s="6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AB68" s="6" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69">
       <c r="AA69" s="6" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AB69" s="6" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70">
       <c r="AA70" s="6" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="AB70" s="6" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71">
       <c r="AA71" s="6" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72">
       <c r="AA72" s="6" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73">
       <c r="AA73" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74">
       <c r="AA74" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75">
       <c r="AA75" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB75" s="6" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76">
       <c r="AA76" s="6" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="AB76" s="6" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77">
       <c r="AA77" s="6" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="AB77" s="6" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78">
       <c r="AA78" s="6" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79">
       <c r="AA79" s="6" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="AB79" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
       <c r="AA80" s="6" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AB80" s="6" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81">
       <c r="AA81" s="6" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="AB81" s="6" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82">
       <c r="AA82" s="6" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="AB82" s="6" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83">
       <c r="AA83" s="6" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84">
       <c r="AA84" s="6" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85">
       <c r="AA85" s="6" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AB85" s="6" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86">
       <c r="AA86" s="6" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="AB86" s="6" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87">
       <c r="AA87" s="6" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AB87" s="6" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88">
       <c r="AA88" s="6" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89">
       <c r="AA89" s="6" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="AB89" s="6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90">
       <c r="AA90" s="6" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="AB90" s="6" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91">
       <c r="AA91" s="6" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AB91" s="6" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92">
       <c r="AA92" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AB92" s="6" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93">
       <c r="AA93" s="6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="94">
       <c r="AA94" s="6" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95">
       <c r="AA95" s="6" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96">
       <c r="AA96" s="6" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97">
       <c r="AA97" s="6" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98">
       <c r="AA98" s="6" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" s="6" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" s="6" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" s="6" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" s="6" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" s="6" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" s="6" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" s="6" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" s="6" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" s="6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" s="6" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" s="6" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" s="6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" s="6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" s="6" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" s="6" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" s="6" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" s="6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" s="6" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" s="6" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" s="6" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" s="6" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" s="6" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" s="6" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_StudyFolderTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_StudyFolderTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -1135,6 +1135,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
